--- a/LearningJunitBDD/src/test/resources/fixtures/login1.xlsx
+++ b/LearningJunitBDD/src/test/resources/fixtures/login1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>testId</t>
   </si>
@@ -31,17 +31,68 @@
     <t>https://www.facebook.com</t>
   </si>
   <si>
-    <t>Test_id_loginFacebook</t>
+    <t>Test_id_Login</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>https://www.google.com</t>
+  </si>
+  <si>
+    <t>Test_id_Reg</t>
+  </si>
+  <si>
+    <t>Test_id_addCart</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>NewData</t>
+  </si>
+  <si>
+    <t>Test_id_Sanchit</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>Facebook helps you connect and share with the people in your life.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -64,13 +115,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -373,41 +428,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="21.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.140625" collapsed="true"/>
+    <col min="3" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/LearningJunitBDD/src/test/resources/fixtures/login1.xlsx
+++ b/LearningJunitBDD/src/test/resources/fixtures/login1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>testId</t>
   </si>
